--- a/price-coating.xlsx
+++ b/price-coating.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\OneDrive\Документы\Работа\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dolorem\Documents\Web\powerful-fusion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F20AB8-5FA3-4EB2-BC72-17CC74C87A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Прайс лист PFF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Производитель</t>
   </si>
@@ -71,12 +70,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Цена, руб с  НДС</t>
+  </si>
+  <si>
+    <t>Уточняйте у представителя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,6 +245,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,21 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,23 +548,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="127.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="127.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,16 +581,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -598,14 +600,14 @@
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>48</v>
       </c>
-      <c r="E3" s="17">
-        <v>5000</v>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -615,14 +617,14 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>72</v>
       </c>
-      <c r="E4" s="18">
-        <v>15000</v>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -632,11 +634,11 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>500</v>
       </c>
-      <c r="E5" s="17">
-        <v>450</v>
+      <c r="E5" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
